--- a/docs/数据结构/数据结构-看板服务.xlsx
+++ b/docs/数据结构/数据结构-看板服务.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-dashboard\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223F59C4-CC68-46C3-82DA-E4A9BC9D999A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E4A166-9986-4E47-B0DA-578297254C5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="836" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="836" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="50" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="102">
   <si>
     <t>描述</t>
   </si>
@@ -409,6 +409,22 @@
   </si>
   <si>
     <t>JSON格式存储</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>widgetGroupId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>widget_group_id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>widget_group.id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例分组Id</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1068,9 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614A6EB7-8565-4488-8D7B-A392A679BBA6}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1757,10 +1771,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9CD3ED-0071-4510-B0DC-232FD35769BF}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1908,20 +1922,22 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="H7" s="8" t="s">
         <v>24</v>
       </c>
@@ -1929,16 +1945,16 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1946,41 +1962,43 @@
       <c r="H8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1990,13 +2008,13 @@
     </row>
     <row r="11" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>32</v>
@@ -2009,16 +2027,16 @@
     </row>
     <row r="12" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -2028,16 +2046,16 @@
     </row>
     <row r="13" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -2047,16 +2065,16 @@
     </row>
     <row r="14" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -2066,13 +2084,13 @@
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>32</v>
@@ -2085,22 +2103,41 @@
     </row>
     <row r="16" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -2113,7 +2150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2522B3-6FB3-40C8-9638-FD6EAB95476F}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>

--- a/docs/数据结构/数据结构-看板服务.xlsx
+++ b/docs/数据结构/数据结构-看板服务.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-dashboard\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E4A166-9986-4E47-B0DA-578297254C5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904A9BAC-4247-4090-ABE1-04BC1FC0F8D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="836" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="1950" windowWidth="20910" windowHeight="11835" tabRatio="836" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="50" r:id="rId1"/>

--- a/docs/数据结构/数据结构-看板服务.xlsx
+++ b/docs/数据结构/数据结构-看板服务.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-dashboard\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904A9BAC-4247-4090-ABE1-04BC1FC0F8D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E49F13-6122-4319-8723-FBC487B49AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="1950" windowWidth="20910" windowHeight="11835" tabRatio="836" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="1950" windowWidth="20910" windowHeight="11835" tabRatio="836" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="50" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="108">
   <si>
     <t>描述</t>
   </si>
@@ -425,6 +425,30 @@
   </si>
   <si>
     <t>实例分组Id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>isHome</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_home</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是主页</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认=0，只能有一个主页</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1773,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9CD3ED-0071-4510-B0DC-232FD35769BF}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -2148,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2522B3-6FB3-40C8-9638-FD6EAB95476F}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2322,37 +2346,41 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -2362,13 +2390,13 @@
     </row>
     <row r="10" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>32</v>
@@ -2381,16 +2409,16 @@
     </row>
     <row r="11" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -2400,16 +2428,16 @@
     </row>
     <row r="12" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -2419,16 +2447,16 @@
     </row>
     <row r="13" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -2438,13 +2466,13 @@
     </row>
     <row r="14" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>32</v>
@@ -2457,22 +2485,41 @@
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/docs/数据结构/数据结构-看板服务.xlsx
+++ b/docs/数据结构/数据结构-看板服务.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-dashboard\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E49F13-6122-4319-8723-FBC487B49AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C5E0A4-A382-4283-A998-B9054D153FF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="1950" windowWidth="20910" windowHeight="11835" tabRatio="836" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="836" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="50" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="107">
   <si>
     <t>描述</t>
   </si>
@@ -428,27 +428,23 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>isHome</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_home</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是主页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>默认=0，只能有一个主页</t>
+    <t>sceneCategory</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene_category</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景分类</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能有一个主页:DASHBOARD\HOME\SCREEN</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2175,7 +2171,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2348,25 +2344,25 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">

--- a/docs/数据结构/数据结构-看板服务.xlsx
+++ b/docs/数据结构/数据结构-看板服务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-dashboard\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C5E0A4-A382-4283-A998-B9054D153FF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675CB3CE-1DDD-497C-88BF-94C9F15024BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="836" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="107">
   <si>
     <t>描述</t>
   </si>
@@ -1104,7 +1104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614A6EB7-8565-4488-8D7B-A392A679BBA6}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2168,10 +2170,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2522B3-6FB3-40C8-9638-FD6EAB95476F}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2365,37 +2367,41 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2405,13 +2411,13 @@
     </row>
     <row r="11" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>32</v>
@@ -2424,16 +2430,16 @@
     </row>
     <row r="12" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -2443,16 +2449,16 @@
     </row>
     <row r="13" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -2462,16 +2468,16 @@
     </row>
     <row r="14" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -2481,13 +2487,13 @@
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>32</v>
@@ -2500,22 +2506,41 @@
     </row>
     <row r="16" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/docs/数据结构/数据结构-看板服务.xlsx
+++ b/docs/数据结构/数据结构-看板服务.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-dashboard\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675CB3CE-1DDD-497C-88BF-94C9F15024BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594D37D6-89DB-4073-9A43-5F45E4725F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="836" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="118">
   <si>
     <t>描述</t>
   </si>
@@ -445,6 +445,50 @@
   </si>
   <si>
     <t>只能有一个主页:DASHBOARD\HOME\SCREEN</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>personalUse</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal_use</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人可用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认=0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户Id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>为空表示全局配置，否则为个人配置</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx_user_id</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1793,10 +1837,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9CD3ED-0071-4510-B0DC-232FD35769BF}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2009,37 +2053,41 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -2049,13 +2097,13 @@
     </row>
     <row r="12" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>32</v>
@@ -2068,16 +2116,16 @@
     </row>
     <row r="13" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -2087,16 +2135,16 @@
     </row>
     <row r="14" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -2106,16 +2154,16 @@
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -2125,13 +2173,13 @@
     </row>
     <row r="16" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>32</v>
@@ -2144,22 +2192,41 @@
     </row>
     <row r="17" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -2170,10 +2237,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2522B3-6FB3-40C8-9638-FD6EAB95476F}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2390,37 +2457,41 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -2430,13 +2501,13 @@
     </row>
     <row r="12" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>32</v>
@@ -2449,16 +2520,16 @@
     </row>
     <row r="13" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -2468,16 +2539,16 @@
     </row>
     <row r="14" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -2487,16 +2558,16 @@
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -2506,13 +2577,13 @@
     </row>
     <row r="16" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>32</v>
@@ -2525,22 +2596,41 @@
     </row>
     <row r="17" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
